--- a/report/reliability/comb/Faculdade de Letras - FALE-Graduação (licenciatura)-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Letras - FALE-Graduação (licenciatura)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="481">
+  <fonts count="482">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1819,6 +1822,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3137,7 +3145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="804">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3662,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3690,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3705,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3721,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3735,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3751,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3780,19 +3787,19 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3820,13 +3827,14 @@
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3835,7 +3843,6 @@
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3851,13 +3858,14 @@
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3865,7 +3873,6 @@
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3881,20 +3888,20 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3910,19 +3917,19 @@
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3950,13 +3957,14 @@
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3965,7 +3973,6 @@
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3981,13 +3988,14 @@
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3995,7 +4003,6 @@
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4011,20 +4018,20 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4040,19 +4047,21 @@
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4128,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7441135194136909</v>
+        <v>0.7118249646620406</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7602742668140127</v>
+        <v>0.7481215846084679</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8962148986737063</v>
+        <v>0.9042850179401957</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.20903981492815285</v>
+        <v>0.18598233988275029</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.171433690951177</v>
+        <v>2.970169490091286</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03561224797040024</v>
+        <v>0.03834591205995255</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.399159663865546</v>
+        <v>1.8183581124757595</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7058467445797171</v>
+        <v>0.5914283498221236</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.15298959148428343</v>
+        <v>0.11238135470534538</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7162250849637183</v>
+        <v>0.7096144779735278</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7277851660566548</v>
+        <v>0.7351517084632436</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8706742588468626</v>
+        <v>0.8953170057993399</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.19552825403176444</v>
+        <v>0.1878582899311487</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.6735690906841785</v>
+        <v>2.7757464629943347</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03957216554913724</v>
+        <v>0.039313006311820296</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05250001024348107</v>
+        <v>0.0708382085874068</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.15178878355849437</v>
+        <v>0.11127372881478043</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.716573112248854</v>
+        <v>0.6862435279077748</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7303081374866994</v>
+        <v>0.7182141199061739</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8725531118669947</v>
+        <v>0.8867276787373557</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.19754509404718765</v>
+        <v>0.17518935805074787</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.707935384778924</v>
+        <v>2.5487938560549273</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03956312055159726</v>
+        <v>0.041569960509822895</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05200203767339981</v>
+        <v>0.07229456422069681</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.15178878355849437</v>
+        <v>0.109224670890543</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7214321458625527</v>
+        <v>0.6903199576560474</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.733141073132068</v>
+        <v>0.7242306965953045</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8775840599114273</v>
+        <v>0.8917667055678589</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.19984277863735794</v>
+        <v>0.17955558674011943</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.747298288787988</v>
+        <v>2.626219407504125</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03896774812410677</v>
+        <v>0.04103460906664228</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05331051597686895</v>
+        <v>0.0716348170177078</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.15178878355849437</v>
+        <v>0.11148172290338133</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7146555093713655</v>
+        <v>0.6958602503006841</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7287385006790242</v>
+        <v>0.7181568201314745</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8758393027951021</v>
+        <v>0.8838737457590508</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.19628711892072334</v>
+        <v>0.17514845318612704</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.686479660781972</v>
+        <v>2.548072372964574</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.039889521244344917</v>
+        <v>0.04094616279236034</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.051985070867000494</v>
+        <v>0.06361253164180135</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.142116586412774</v>
+        <v>0.11238135470534538</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7237212342848481</v>
+        <v>0.6736749729328538</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7466510921828878</v>
+        <v>0.7162322952729673</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8558568425821047</v>
+        <v>0.8820684524193516</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21130703269906312</v>
+        <v>0.1737818503877464</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.947125758765382</v>
+        <v>2.5240091925257664</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03850578289919972</v>
+        <v>0.04340718729055671</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.0505738395010276</v>
+        <v>0.0633532251028456</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.16491999705321841</v>
+        <v>0.11031889435150705</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7213411602276624</v>
+        <v>0.672122557920148</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7434657841849537</v>
+        <v>0.7149487163646167</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8543426097654976</v>
+        <v>0.8846739102232966</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.20852578832731994</v>
+        <v>0.17287816017866042</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.898115488504546</v>
+        <v>2.508140665941103</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03882017602639177</v>
+        <v>0.04366237268041261</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05104430417952958</v>
+        <v>0.0640554108695084</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.16335320172828482</v>
+        <v>0.11031889435150705</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7507486290890965</v>
+        <v>0.7133852313443632</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7713639778769864</v>
+        <v>0.7592334280371962</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.885284793058885</v>
+        <v>0.9088246259267593</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.23471680702983086</v>
+        <v>0.2080985385934473</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.3737639883446153</v>
+        <v>3.153400498448309</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.03455630581398982</v>
+        <v>0.038852716113880865</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.05072548744059222</v>
+        <v>0.07198187954625092</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.18633008539609022</v>
+        <v>0.12911845424198862</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7644022842942821</v>
+        <v>0.7120123284353085</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7735844269420534</v>
+        <v>0.7482118290615305</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8865305184473231</v>
+        <v>0.8917748514201285</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.23699372542030148</v>
+        <v>0.1984820562052474</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.416657328354662</v>
+        <v>2.9715924551688895</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.032423161663599466</v>
+        <v>0.03760502041901067</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04958682777230834</v>
+        <v>0.07173543833310159</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.18633008539609022</v>
+        <v>0.12911845424198862</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7368959758907181</v>
+        <v>0.7256945866053076</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7541028032991294</v>
+        <v>0.7504777002830764</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8986599631759826</v>
+        <v>0.8999828911069908</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.21801356313138087</v>
+        <v>0.20040820958026595</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.066740139443238</v>
+        <v>3.0076578371330887</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.037037061745431976</v>
+        <v>0.03541191251931152</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05994165548418092</v>
+        <v>0.07304664853174911</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.15419039941007248</v>
+        <v>0.12911845424198862</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7175785750330869</v>
+        <v>0.7051912712690633</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7372316226390242</v>
+        <v>0.7490208344770252</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.890190419451076</v>
+        <v>0.9075014918560068</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.20322378372727767</v>
+        <v>0.1991668384427392</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.8056329686363224</v>
+        <v>2.9843944732076153</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03968618952982729</v>
+        <v>0.039484273402820416</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.058229549298821064</v>
+        <v>0.07893818884699341</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.142116586412774</v>
+        <v>0.11238135470534538</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7192061465676658</v>
+        <v>0.6841724844823744</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7374449162380788</v>
+        <v>0.7321720838941719</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.86563374685033</v>
+        <v>0.901924191608317</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2034021723226852</v>
+        <v>0.18554288304319183</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.808724575703803</v>
+        <v>2.7337407337510897</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03921825636805716</v>
+        <v>0.04226192732925555</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05386173133788196</v>
+        <v>0.07897401052714602</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.15178878355849437</v>
+        <v>0.10927987355185234</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7182069963337375</v>
+        <v>0.6796862368820661</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7370734856443291</v>
+        <v>0.7266860871471289</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8663526873759093</v>
+        <v>0.8784586481840939</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2030916608429416</v>
+        <v>0.18137891038317006</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.803344072965045</v>
+        <v>2.658796544829809</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03940874644339617</v>
+        <v>0.04254557823054483</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.054062642354309236</v>
+        <v>0.0756613645302733</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.142116586412774</v>
+        <v>0.11238135470534538</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6772701510461461</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7252119165808039</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8786648872175494</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.18028128375314262</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.6391680001438607</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.042987847040780874</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.07572916483344296</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.109224670890543</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>119.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5947729232585894</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.642461861655655</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6271809237105882</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.502493445288325</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.369747899159664</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0803761603122186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5835430468291438</v>
+        <v>0.3660461667115572</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6248330299284052</v>
+        <v>0.47949541170808</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.606846742847888</v>
+        <v>0.45438692681168796</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4684914267004172</v>
+        <v>0.3389869116300547</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.8151260504201683</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2951433829046597</v>
+        <v>0.23628902321631962</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5554798752287929</v>
+        <v>0.5283755536566883</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6047493868567418</v>
+        <v>0.6084957422430666</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5749806498064183</v>
+        <v>0.5993582874569187</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.46736361903324253</v>
+        <v>0.41552858794381237</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4789915966386555</v>
+        <v>3.369747899159664</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9815996931315248</v>
+        <v>1.0803761603122186</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5977596374078162</v>
+        <v>0.5098213611144826</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6358287616929057</v>
+        <v>0.5640369868059464</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6106135988182316</v>
+        <v>0.5455942660532088</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4779557423584967</v>
+        <v>0.36883597228223564</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7394957983193278</v>
+        <v>3.8151260504201683</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3682983671671782</v>
+        <v>1.2951433829046597</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5465043090977151</v>
+        <v>0.5982349504494349</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5045424273623211</v>
+        <v>0.6089122525776701</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5273070877910878</v>
+        <v>0.6360390319644882</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4040694188012246</v>
+        <v>0.5624011860819762</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7563025210084033</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4955662526882691</v>
+        <v>0.40909054941940426</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5692385477734223</v>
+        <v>0.6172520698405567</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5288527785289371</v>
+        <v>0.6228275703302165</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5530437830877565</v>
+        <v>0.6526877430896066</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4220721361778653</v>
+        <v>0.4733106101483994</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.7815126050420168</v>
+        <v>0.7563025210084033</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.5793136455249988</v>
+        <v>1.4955662526882691</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3211462177522904</v>
+        <v>0.6299438921611488</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.2999218479935602</v>
+        <v>0.6320293196784517</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.24509128114145204</v>
+        <v>0.6591142037749573</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.17108787419853239</v>
+        <v>0.4796452767100156</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.680672268907563</v>
+        <v>0.7815126050420168</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3272424140225483</v>
+        <v>1.5793136455249988</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3165431641625675</v>
+        <v>0.19538106236665564</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.28001971849626156</v>
+        <v>0.27340078651034627</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.22305540878687202</v>
+        <v>0.19695429053352778</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.1243692291127165</v>
+        <v>0.16017618979143639</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.7058823529411766</v>
+        <v>0.9159663865546218</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6740944487483405</v>
+        <v>0.2786113243337425</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4661038739214798</v>
+        <v>0.37144195712381456</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4459218647193288</v>
+        <v>0.3713198074959112</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.35059533946741656</v>
+        <v>0.3362561953557225</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.307151312809455</v>
+        <v>0.20938976281899926</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3781512605042017</v>
+        <v>2.680672268907563</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5293268522438754</v>
+        <v>1.3272424140225483</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5800372151669098</v>
+        <v>0.37815634792584224</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5751966363443701</v>
+        <v>0.3517069131821556</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5040792376421517</v>
+        <v>0.30159213656443523</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.45209667178574864</v>
+        <v>0.1707415959589782</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.19327731092437</v>
+        <v>2.7058823529411766</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4158743535917335</v>
+        <v>1.6740944487483405</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.565807382108401</v>
+        <v>0.45640941049596945</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5736373740794158</v>
+        <v>0.3643470701085081</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5660368244404895</v>
+        <v>0.27335827979205424</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4431137204083555</v>
+        <v>0.27799359251411504</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0</v>
+        <v>1.3781512605042017</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3403768759164436</v>
+        <v>1.5293268522438754</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>119.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5718142495518023</v>
+        <v>0.5568556679622478</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5763514984442232</v>
+        <v>0.5030718470926211</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.568019425202895</v>
+        <v>0.42755124216346657</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4542204241134098</v>
+        <v>0.4093855087614754</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.19327731092437</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4158743535917335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>119.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5772749167593381</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5454711475665975</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5350236812817625</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.44252132023919</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.0</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3403768759164436</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>119.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5901374108608958</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5566476381669291</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.545844582370811</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.46238125319639956</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.8907563025210083</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3005208602344127</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.01680672268907563</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.40336134453781514</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.46218487394957986</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2773109243697479</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.2605042016806723</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.37815126050420167</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.025210084033613446</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.03361344537815126</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.025210084033613446</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3445378151260504</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4957983193277311</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07563025210084033</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.025210084033613446</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.01680672268907563</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.40336134453781514</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.46218487394957986</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.058823529411764705</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.05042016806722689</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.33613445378151263</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.07563025210084033</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.453781512605042</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7899159663865546</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.09243697478991597</v>
+        <v>0.2773109243697479</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.1092436974789916</v>
+        <v>0.2605042016806723</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.008403361344537815</v>
+        <v>0.37815126050420167</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7899159663865546</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.21008403361344538</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.01680672268907563</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.07563025210084033</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.06722689075630252</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.05042016806722689</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.08403361344537816</v>
+        <v>0.7899159663865546</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.18487394957983194</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.09243697478991597</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.1092436974789916</v>
+      </c>
+      <c r="G49" t="n" s="114">
         <v>0.008403361344537815</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.2773109243697479</v>
-      </c>
-      <c r="G49" t="n" s="114">
-        <v>0.01680672268907563</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.08403361344537816</v>
+        <v>0.7899159663865546</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.226890756302521</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.16806722689075632</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.16806722689075632</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.12605042016806722</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.226890756302521</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.46218487394957986</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.15966386554621848</v>
+        <v>0.9159663865546218</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.03361344537815126</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.226890756302521</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.11764705882352941</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.21008403361344538</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13445378151260504</v>
+        <v>0.18487394957983194</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.058823529411764705</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.44537815126050423</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.15126050420168066</v>
+        <v>0.2773109243697479</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5197,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.20168067226890757</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.14285714285714285</v>
+        <v>0.226890756302521</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.25210084033613445</v>
+        <v>0.16806722689075632</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2605042016806723</v>
+        <v>0.16806722689075632</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.14285714285714285</v>
+        <v>0.12605042016806722</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.226890756302521</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,19 +5235,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.2184873949579832</v>
+        <v>0.46218487394957986</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.12605042016806722</v>
+        <v>0.15966386554621848</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.31932773109243695</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.2184873949579832</v>
+        <v>0.226890756302521</v>
       </c>
       <c r="F54" t="n" s="113">
         <v>0.11764705882352941</v>
@@ -5244,6 +5256,84 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13445378151260504</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.44537815126050423</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.15126050420168066</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.20168067226890757</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.25210084033613445</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2605042016806723</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.2184873949579832</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.12605042016806722</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.31932773109243695</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.2184873949579832</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8509325785615791</v>
+        <v>0.8870352546964674</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8575345551892722</v>
+        <v>0.9921232349762066</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.871626449288777</v>
+        <v>0.9909015116872514</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6007683601978696</v>
+        <v>0.9767361920265506</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.019245974548771</v>
+        <v>125.95567240856916</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.022482589102324146</v>
+        <v>0.002381886693728379</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.600840336134454</v>
+        <v>0.5826330532212886</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9905909722440496</v>
+        <v>1.1540630650803254</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5390194938501025</v>
+        <v>0.9818867630870903</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7991875792515704</v>
+        <v>0.9901188775044845</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8108005887854679</v>
+        <v>0.9908606095715098</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7688428303129454</v>
+        <v>0.9818867630870904</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5882191536964938</v>
+        <v>0.9818867630870902</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.285428710272812</v>
+        <v>108.41648765575121</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.031171710113441845</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.021525338731120468</v>
-      </c>
+        <v>0.001740977060190415</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5512283052316903</v>
+        <v>0.9818867630870903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.805923706350121</v>
+        <v>0.6374275401946843</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8160187166364548</v>
+        <v>0.98145940589021</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.769052878234146</v>
+        <v>0.9635938042783759</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5965212327328624</v>
+        <v>0.963593804278376</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.435335495643919</v>
+        <v>52.93570422168754</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.02970273434263726</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.017690031595095006</v>
-      </c>
+        <v>0.00976279626977158</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5268106824685146</v>
+        <v>0.9635938042783759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8214100322386756</v>
+        <v>0.6677453727455698</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8312270100852931</v>
+        <v>0.9923052472586869</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.79689241220993</v>
+        <v>0.9847280087141854</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6214567742869707</v>
+        <v>0.9847280087141854</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.925118708303808</v>
+        <v>128.95869180188075</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.02916559584663703</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.02435091037882103</v>
-      </c>
+        <v>0.006238137853453198</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5512283052316903</v>
+        <v>0.9847280087141854</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8153838275208686</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8162401142008338</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.786771143169883</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5968762800751516</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.441884095927844</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.028571262051950597</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.03203019858683948</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5268106824685146</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>119.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9830870525065408</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9904847675139224</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9848944389025523</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9783099659454788</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.40909054941940426</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>119.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8418507652550886</v>
+        <v>0.9962241066567648</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8482490933156559</v>
+        <v>0.9966302625453486</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8040165467250179</v>
+        <v>0.9961097746367099</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7256492879693784</v>
+        <v>0.9883688500323841</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.369747899159664</v>
+        <v>0.7563025210084033</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0803761603122186</v>
+        <v>1.4955662526882691</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>119.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.85025012328366</v>
+        <v>0.9941650432911069</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8408099929936764</v>
+        <v>0.9895302548477672</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7961033077447458</v>
+        <v>0.9820686425097254</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7050898698570643</v>
+        <v>0.9804863741617609</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8151260504201683</v>
+        <v>0.7815126050420168</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2951433829046597</v>
+        <v>1.5793136455249988</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>119.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8018385970274345</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8184664337007213</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7478053969118929</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6799557888743814</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4789915966386555</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9815996931315248</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>119.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8511068037720393</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8404918518645962</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.77781512633477</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.693808674038627</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7394957983193278</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3682983671671782</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7899159663865546</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7899159663865546</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.09243697478991597</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.1092436974789916</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.008403361344537815</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.058823529411764705</v>
+        <v>0.7899159663865546</v>
       </c>
       <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.01680672268907563</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
       <c r="E27" t="n" s="227">
-        <v>0.40336134453781514</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.46218487394957986</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.058823529411764705</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2773109243697479</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2605042016806723</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.37815126050420167</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.03361344537815126</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3445378151260504</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4957983193277311</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07563025210084033</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05042016806722689</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.33613445378151263</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07563025210084033</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.453781512605042</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5821,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5870,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.839558927375111</v>
+        <v>0.7138653029718256</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8525985455245297</v>
+        <v>0.8281688339540274</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7430690820540151</v>
+        <v>0.7862447137884176</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7430690820540153</v>
+        <v>0.6163519019429925</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>5.784193572298939</v>
+        <v>4.819666030389704</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.027763344011705215</v>
+        <v>0.02193579145414616</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.69327731092437</v>
+        <v>2.100840336134454</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4023425373062284</v>
+        <v>0.9920157927414632</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7430690820540152</v>
+        <v>0.614345523335269</v>
       </c>
     </row>
     <row r="7">
@@ -5944,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7430690820540152</v>
+        <v>0.839558927375111</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7430690820540152</v>
+        <v>0.8525985455245297</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5521516607045966</v>
+        <v>0.7430690820540151</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.7430690820540152</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7430690820540152</v>
-      </c>
+        <v>0.7430690820540153</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.784193572298939</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.027763344011705215</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7430690820540152</v>
       </c>
@@ -5969,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5521516607045966</v>
+        <v>0.2747205869806333</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7430690820540152</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5521516607045966</v>
-      </c>
+        <v>0.6591948965401548</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4916411004396931</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4916411004396932</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.9342283605733146</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.037987403007496104</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7430690820540152</v>
+        <v>0.4916411004396931</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.39619946593802413</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7611078476756565</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6143455233352692</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.614345523335269</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.185989327277281</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03624698506789536</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.614345523335269</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>119.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9167554184959545</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9335601432296731</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8047424254873767</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7430690820540151</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.680672268907563</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3272424140225483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>119.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9485297565420342</v>
+        <v>0.6441599051207253</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9335601432296731</v>
+        <v>0.8137283087777138</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8047424254873767</v>
+        <v>0.6476073379847912</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7430690820540151</v>
+        <v>0.5841793388102436</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9159663865546218</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2786113243337425</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>119.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9214819223801599</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9108771054266134</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8677437582555022</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7744599023675749</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.680672268907563</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3272424140225483</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>119.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9399393469194695</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8634655685273973</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7795028620284983</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7416634706900063</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.7058823529411766</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6740944487483405</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.08403361344537816</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9159663865546218</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.08403361344537816</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.18487394957983194</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.008403361344537815</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.42857142857142855</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2773109243697479</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.01680672268907563</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.08403361344537816</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.226890756302521</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.16806722689075632</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.16806722689075632</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.12605042016806722</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.226890756302521</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6194,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6243,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9247892518440464</v>
+        <v>0.7739761842511825</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.925015731086616</v>
+        <v>0.911438735838933</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8604923419220274</v>
+        <v>0.8748526125139688</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8604923419220274</v>
+        <v>0.7742938512425671</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>12.33613055766569</v>
+        <v>10.291618400808874</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01376496797167331</v>
+        <v>0.015245355695945352</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.9453781512605042</v>
+        <v>2.708683473389356</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2735741711220026</v>
+        <v>0.8159827896997206</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8604923419220273</v>
+        <v>0.7830597556010503</v>
       </c>
     </row>
     <row r="7">
@@ -6314,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8604923419220273</v>
+        <v>0.8809950694755715</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8604923419220273</v>
+        <v>0.889060859516015</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.7404470705064551</v>
+        <v>0.80027863554136</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8604923419220273</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8604923419220273</v>
-      </c>
+        <v>0.80027863554136</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>8.013951213587754</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.020874850686595135</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8604923419220273</v>
+        <v>0.80027863554136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.7404470705064551</v>
+        <v>0.4141526031146152</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8604923419220273</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.7404470705064551</v>
-      </c>
+        <v>0.850272851506817</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.7395431625852908</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.7395431625852908</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>5.6788154991513045</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.026448504893424558</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8604923419220273</v>
+        <v>0.7395431625852907</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.49271546427944535</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.8783326000615042</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.7830597556010505</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.7830597556010503</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>7.2191285463937795</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.025550925232170684</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.7830597556010503</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>119.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9655759249935344</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9644927013518628</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8946897262259366</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8604923419220272</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.0</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3403768759164436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>119.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9633930056417621</v>
+        <v>0.8333928012595638</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9644927013518628</v>
+        <v>0.9123016804523474</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8946897262259366</v>
+        <v>0.8395108601241736</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8604923419220272</v>
+        <v>0.7999840885701955</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.8907563025210083</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3005208602344127</v>
+        <v>0.23628902321631962</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>119.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.940330357225487</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.9342667204677324</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8910386179908452</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.8261951379487775</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.369747899159664</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0803761603122186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>119.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9536521698467881</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9185289043217092</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8557443623486435</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.8158725434700504</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.8151260504201683</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2951433829046597</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.20168067226890757</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.25210084033613445</v>
-      </c>
-      <c r="E23" t="n" s="457">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.01680672268907563</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.40336134453781514</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.46218487394957986</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.025210084033613446</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2773109243697479</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.2605042016806723</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.2184873949579832</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.12605042016806722</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.31932773109243695</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2184873949579832</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.37815126050420167</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6557,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6572,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9901188775044845</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9908606095715098</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9818867630870904</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9818867630870902</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>108.41648765575121</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.001740977060190415</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.7689075630252101</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5304672987032237</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9818867630870903</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6672493663141335</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6685695967773515</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5021438560807376</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5021438560807372</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.017224703215352</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.060765024876422456</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.276534351897296</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5021438560807373</v>
       </c>
     </row>
     <row r="7">
@@ -6645,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9818867630870903</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9818867630870903</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9641016155256441</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9818867630870903</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9818867630870903</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9818867630870903</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.5021438560807373</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.5021438560807373</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.25214845219963267</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.5021438560807373</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.5021438560807373</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.5021438560807373</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9641016155256441</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9818867630870903</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9641016155256441</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9818867630870903</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.25214845219963267</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.5021438560807373</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.25214845219963267</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.5021438560807373</v>
       </c>
     </row>
     <row r="13">
@@ -6733,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>119.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9952102271552002</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9954613912872488</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9864046782666672</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9818867630870907</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7563025210084033</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4955662526882691</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8774928213065799</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8666440607541072</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.614122263185585</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5021438560807372</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.3781512605042017</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5293268522438754</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>119.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9957058066323232</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9954613912872488</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9864046782666672</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9818867630870907</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.7815126050420168</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.5793136455249988</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8553692398248083</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8666440607541072</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6141222631855849</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5021438560807372</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.19327731092437</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4158743535917335</v>
       </c>
     </row>
     <row r="19">
@@ -6824,74 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="G22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7899159663865546</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.09243697478991597</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.1092436974789916</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="G23" t="n" s="573">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.46218487394957986</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.15966386554621848</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.03361344537815126</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.226890756302521</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7899159663865546</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.01680672268907563</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.07563025210084033</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06722689075630252</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.05042016806722689</v>
-      </c>
-      <c r="G24" t="n" s="573">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.13445378151260504</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.44537815126050423</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.15126050420168066</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6921,8 +7107,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="575">
-        <v>48</v>
+      <c r="A1" t="s" s="576">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6936,66 +7122,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="589">
+      <c r="A4" t="s" s="590">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="603">
+      <c r="A5" t="s" s="604">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="603">
+      <c r="B5" t="s" s="604">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="603">
+      <c r="C5" t="s" s="604">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="603">
+      <c r="D5" t="s" s="604">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="603">
+      <c r="E5" t="s" s="604">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="603">
+      <c r="F5" t="s" s="604">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="603">
+      <c r="G5" t="s" s="604">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="603">
+      <c r="H5" t="s" s="604">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="603">
+      <c r="I5" t="s" s="604">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="604">
-        <v>0.6672493663141335</v>
-      </c>
-      <c r="B6" t="n" s="605">
-        <v>0.6685695967773515</v>
-      </c>
-      <c r="C6" t="n" s="606">
-        <v>0.5021438560807376</v>
-      </c>
-      <c r="D6" t="n" s="607">
-        <v>0.5021438560807372</v>
-      </c>
-      <c r="E6" t="n" s="608">
-        <v>2.017224703215352</v>
-      </c>
-      <c r="F6" t="n" s="609">
-        <v>0.060765024876422456</v>
-      </c>
-      <c r="G6" t="n" s="610">
-        <v>1.7857142857142858</v>
-      </c>
-      <c r="H6" t="n" s="611">
-        <v>1.276534351897296</v>
-      </c>
-      <c r="I6" t="n" s="612">
-        <v>0.5021438560807373</v>
+      <c r="A6" t="n" s="605">
+        <v>0.9247892518440464</v>
+      </c>
+      <c r="B6" t="n" s="606">
+        <v>0.925015731086616</v>
+      </c>
+      <c r="C6" t="n" s="607">
+        <v>0.8604923419220274</v>
+      </c>
+      <c r="D6" t="n" s="608">
+        <v>0.8604923419220274</v>
+      </c>
+      <c r="E6" t="n" s="609">
+        <v>12.33613055766569</v>
+      </c>
+      <c r="F6" t="n" s="610">
+        <v>0.01376496797167331</v>
+      </c>
+      <c r="G6" t="n" s="611">
+        <v>1.9453781512605042</v>
+      </c>
+      <c r="H6" t="n" s="612">
+        <v>1.2735741711220026</v>
+      </c>
+      <c r="I6" t="n" s="613">
+        <v>0.8604923419220273</v>
       </c>
     </row>
     <row r="7">
@@ -7009,81 +7195,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="616">
+      <c r="A9" t="s" s="617">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="630">
+      <c r="B10" t="s" s="631">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="630">
+      <c r="C10" t="s" s="631">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="630">
+      <c r="D10" t="s" s="631">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="630">
+      <c r="E10" t="s" s="631">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="630">
+      <c r="F10" t="s" s="631">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="630">
+      <c r="G10" t="s" s="631">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="630">
+      <c r="H10" t="s" s="631">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="630">
+      <c r="I10" t="s" s="631">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="626">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="631">
-        <v>0.5021438560807373</v>
-      </c>
-      <c r="C11" t="n" s="632">
-        <v>0.5021438560807373</v>
-      </c>
-      <c r="D11" t="n" s="633">
-        <v>0.25214845219963267</v>
-      </c>
-      <c r="E11" t="n" s="634">
-        <v>0.5021438560807373</v>
-      </c>
-      <c r="F11" s="635"/>
-      <c r="G11" s="636"/>
-      <c r="H11" t="n" s="637">
-        <v>0.5021438560807373</v>
-      </c>
-      <c r="I11" t="n" s="638">
-        <v>0.5021438560807373</v>
+      <c r="A11" t="s" s="627">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n" s="632">
+        <v>0.8604923419220273</v>
+      </c>
+      <c r="C11" t="n" s="633">
+        <v>0.8604923419220273</v>
+      </c>
+      <c r="D11" t="n" s="634">
+        <v>0.7404470705064551</v>
+      </c>
+      <c r="E11" t="n" s="635">
+        <v>0.8604923419220273</v>
+      </c>
+      <c r="F11" s="636"/>
+      <c r="G11" s="637"/>
+      <c r="H11" t="n" s="638">
+        <v>0.8604923419220273</v>
+      </c>
+      <c r="I11" t="n" s="639">
+        <v>0.8604923419220273</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="626">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="631">
-        <v>0.25214845219963267</v>
-      </c>
-      <c r="C12" t="n" s="632">
-        <v>0.5021438560807373</v>
-      </c>
-      <c r="D12" s="633"/>
-      <c r="E12" s="634"/>
-      <c r="F12" s="635"/>
-      <c r="G12" s="636"/>
-      <c r="H12" t="n" s="637">
-        <v>0.25214845219963267</v>
-      </c>
-      <c r="I12" t="n" s="638">
-        <v>0.5021438560807373</v>
+      <c r="A12" t="s" s="627">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="632">
+        <v>0.7404470705064551</v>
+      </c>
+      <c r="C12" t="n" s="633">
+        <v>0.8604923419220273</v>
+      </c>
+      <c r="D12" s="634"/>
+      <c r="E12" s="635"/>
+      <c r="F12" s="636"/>
+      <c r="G12" s="637"/>
+      <c r="H12" t="n" s="638">
+        <v>0.7404470705064551</v>
+      </c>
+      <c r="I12" t="n" s="639">
+        <v>0.8604923419220273</v>
       </c>
     </row>
     <row r="13">
@@ -7097,84 +7283,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="642">
-        <v>30</v>
+      <c r="A15" t="s" s="643">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="656">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="656">
+      <c r="B16" t="s" s="657">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="656">
+      <c r="C16" t="s" s="657">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="656">
+      <c r="D16" t="s" s="657">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="656">
+      <c r="E16" t="s" s="657">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="656">
+      <c r="F16" t="s" s="657">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="657">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="656">
+      <c r="H16" t="s" s="657">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="652">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="657">
+      <c r="A17" t="s" s="653">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n" s="658">
         <v>119.0</v>
       </c>
-      <c r="C17" t="n" s="658">
-        <v>0.8774928213065799</v>
-      </c>
-      <c r="D17" t="n" s="659">
-        <v>0.8666440607541072</v>
-      </c>
-      <c r="E17" t="n" s="660">
-        <v>0.614122263185585</v>
-      </c>
-      <c r="F17" t="n" s="661">
-        <v>0.5021438560807372</v>
-      </c>
-      <c r="G17" t="n" s="662">
-        <v>1.3781512605042017</v>
-      </c>
-      <c r="H17" t="n" s="663">
-        <v>1.5293268522438754</v>
+      <c r="C17" t="n" s="659">
+        <v>0.9655759249935344</v>
+      </c>
+      <c r="D17" t="n" s="660">
+        <v>0.9644927013518628</v>
+      </c>
+      <c r="E17" t="n" s="661">
+        <v>0.8946897262259366</v>
+      </c>
+      <c r="F17" t="n" s="662">
+        <v>0.8604923419220272</v>
+      </c>
+      <c r="G17" t="n" s="663">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n" s="664">
+        <v>1.3403768759164436</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="652">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="657">
+      <c r="A18" t="s" s="653">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="658">
         <v>119.0</v>
       </c>
-      <c r="C18" t="n" s="658">
-        <v>0.8553692398248083</v>
-      </c>
-      <c r="D18" t="n" s="659">
-        <v>0.8666440607541072</v>
-      </c>
-      <c r="E18" t="n" s="660">
-        <v>0.6141222631855849</v>
-      </c>
-      <c r="F18" t="n" s="661">
-        <v>0.5021438560807372</v>
-      </c>
-      <c r="G18" t="n" s="662">
-        <v>2.19327731092437</v>
-      </c>
-      <c r="H18" t="n" s="663">
-        <v>1.4158743535917335</v>
+      <c r="C18" t="n" s="659">
+        <v>0.9633930056417621</v>
+      </c>
+      <c r="D18" t="n" s="660">
+        <v>0.9644927013518628</v>
+      </c>
+      <c r="E18" t="n" s="661">
+        <v>0.8946897262259366</v>
+      </c>
+      <c r="F18" t="n" s="662">
+        <v>0.8604923419220272</v>
+      </c>
+      <c r="G18" t="n" s="663">
+        <v>1.8907563025210083</v>
+      </c>
+      <c r="H18" t="n" s="664">
+        <v>1.3005208602344127</v>
       </c>
     </row>
     <row r="19">
@@ -7188,74 +7374,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="667">
-        <v>36</v>
+      <c r="A21" t="s" s="668">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="681">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="681">
+      <c r="B22" t="s" s="682">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="681">
+      <c r="C22" t="s" s="682">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="681">
+      <c r="D22" t="s" s="682">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="681">
+      <c r="E22" t="s" s="682">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="681">
-        <v>43</v>
+      <c r="F22" t="s" s="682">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="682">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="677">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="682">
-        <v>0.46218487394957986</v>
-      </c>
-      <c r="C23" t="n" s="683">
-        <v>0.15966386554621848</v>
-      </c>
-      <c r="D23" t="n" s="684">
-        <v>0.03361344537815126</v>
-      </c>
-      <c r="E23" t="n" s="685">
-        <v>0.226890756302521</v>
-      </c>
-      <c r="F23" t="n" s="686">
+      <c r="A23" t="s" s="678">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n" s="683">
+        <v>0.20168067226890757</v>
+      </c>
+      <c r="C23" t="n" s="684">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D23" t="n" s="685">
+        <v>0.25210084033613445</v>
+      </c>
+      <c r="E23" t="n" s="686">
+        <v>0.2605042016806723</v>
+      </c>
+      <c r="F23" t="n" s="687">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G23" t="n" s="688">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="678">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n" s="683">
+        <v>0.2184873949579832</v>
+      </c>
+      <c r="C24" t="n" s="684">
+        <v>0.12605042016806722</v>
+      </c>
+      <c r="D24" t="n" s="685">
+        <v>0.31932773109243695</v>
+      </c>
+      <c r="E24" t="n" s="686">
+        <v>0.2184873949579832</v>
+      </c>
+      <c r="F24" t="n" s="687">
         <v>0.11764705882352941</v>
       </c>
-      <c r="G23" t="n" s="687">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="677">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="682">
-        <v>0.21008403361344538</v>
-      </c>
-      <c r="C24" t="n" s="683">
-        <v>0.13445378151260504</v>
-      </c>
-      <c r="D24" t="n" s="684">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="E24" t="n" s="685">
-        <v>0.44537815126050423</v>
-      </c>
-      <c r="F24" t="n" s="686">
-        <v>0.15126050420168066</v>
-      </c>
-      <c r="G24" t="n" s="687">
+      <c r="G24" t="n" s="688">
         <v>0.0</v>
       </c>
     </row>
@@ -7285,8 +7471,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="689">
-        <v>49</v>
+      <c r="A1" t="s" s="690">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7300,66 +7486,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="703">
+      <c r="A4" t="s" s="704">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="717">
+      <c r="A5" t="s" s="718">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="717">
+      <c r="B5" t="s" s="718">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="717">
+      <c r="C5" t="s" s="718">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="717">
+      <c r="D5" t="s" s="718">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="717">
+      <c r="E5" t="s" s="718">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="717">
+      <c r="F5" t="s" s="718">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="717">
+      <c r="G5" t="s" s="718">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="717">
+      <c r="H5" t="s" s="718">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="717">
+      <c r="I5" t="s" s="718">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="718">
-        <v>0.7914592459657</v>
-      </c>
-      <c r="B6" t="n" s="719">
-        <v>0.8005804292211804</v>
-      </c>
-      <c r="C6" t="n" s="720">
-        <v>0.9081667123102098</v>
-      </c>
-      <c r="D6" t="n" s="721">
-        <v>0.2864560129234046</v>
-      </c>
-      <c r="E6" t="n" s="722">
-        <v>4.014552965361265</v>
-      </c>
-      <c r="F6" t="n" s="723">
-        <v>0.029564949381942724</v>
-      </c>
-      <c r="G6" t="n" s="724">
-        <v>2.3403361344537816</v>
-      </c>
-      <c r="H6" t="n" s="725">
-        <v>0.7963177255056065</v>
-      </c>
-      <c r="I6" t="n" s="726">
-        <v>0.21717414235677107</v>
+      <c r="A6" t="n" s="719">
+        <v>0.7625050588221093</v>
+      </c>
+      <c r="B6" t="n" s="720">
+        <v>0.8006940984299613</v>
+      </c>
+      <c r="C6" t="n" s="721">
+        <v>0.9211381322709856</v>
+      </c>
+      <c r="D6" t="n" s="722">
+        <v>0.2866015949584739</v>
+      </c>
+      <c r="E6" t="n" s="723">
+        <v>4.017412892054212</v>
+      </c>
+      <c r="F6" t="n" s="724">
+        <v>0.031922097851116875</v>
+      </c>
+      <c r="G6" t="n" s="725">
+        <v>1.7336134453781513</v>
+      </c>
+      <c r="H6" t="n" s="726">
+        <v>0.7058205119376505</v>
+      </c>
+      <c r="I6" t="n" s="727">
+        <v>0.18633008539609022</v>
       </c>
     </row>
     <row r="7">
@@ -7373,325 +7559,325 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="730">
+      <c r="A9" t="s" s="731">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="744">
+      <c r="B10" t="s" s="745">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="744">
+      <c r="C10" t="s" s="745">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="744">
+      <c r="D10" t="s" s="745">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="744">
+      <c r="E10" t="s" s="745">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="744">
+      <c r="F10" t="s" s="745">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="744">
+      <c r="G10" t="s" s="745">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="744">
+      <c r="H10" t="s" s="745">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="744">
+      <c r="I10" t="s" s="745">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="740">
+      <c r="A11" t="s" s="741">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n" s="746">
+        <v>0.7487106374719251</v>
+      </c>
+      <c r="C11" t="n" s="747">
+        <v>0.774862758926043</v>
+      </c>
+      <c r="D11" t="n" s="748">
+        <v>0.9012670782378915</v>
+      </c>
+      <c r="E11" t="n" s="749">
+        <v>0.27662822888724586</v>
+      </c>
+      <c r="F11" t="n" s="750">
+        <v>3.4417351622049166</v>
+      </c>
+      <c r="G11" t="n" s="751">
+        <v>0.03460978335162744</v>
+      </c>
+      <c r="H11" t="n" s="752">
+        <v>0.06090730690696814</v>
+      </c>
+      <c r="I11" t="n" s="753">
+        <v>0.19426038738050805</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="741">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n" s="746">
+        <v>0.7285685779275042</v>
+      </c>
+      <c r="C12" t="n" s="747">
+        <v>0.7733497750286253</v>
+      </c>
+      <c r="D12" t="n" s="748">
+        <v>0.8994751319284093</v>
+      </c>
+      <c r="E12" t="n" s="749">
+        <v>0.27490021337665094</v>
+      </c>
+      <c r="F12" t="n" s="750">
+        <v>3.4120847447925446</v>
+      </c>
+      <c r="G12" t="n" s="751">
+        <v>0.03592455503820813</v>
+      </c>
+      <c r="H12" t="n" s="752">
+        <v>0.06054235771912064</v>
+      </c>
+      <c r="I12" t="n" s="753">
+        <v>0.1945260622873345</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="741">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n" s="746">
+        <v>0.7286257850582968</v>
+      </c>
+      <c r="C13" t="n" s="747">
+        <v>0.7725792681155113</v>
+      </c>
+      <c r="D13" t="n" s="748">
+        <v>0.9020256232615995</v>
+      </c>
+      <c r="E13" t="n" s="749">
+        <v>0.2740259007977203</v>
+      </c>
+      <c r="F13" t="n" s="750">
+        <v>3.3971364954885415</v>
+      </c>
+      <c r="G13" t="n" s="751">
+        <v>0.03591533115274187</v>
+      </c>
+      <c r="H13" t="n" s="752">
+        <v>0.06176470721797288</v>
+      </c>
+      <c r="I13" t="n" s="753">
+        <v>0.1945260622873345</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="741">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="745">
-        <v>0.7709172877653836</v>
-      </c>
-      <c r="C11" t="n" s="746">
-        <v>0.7764835955117808</v>
-      </c>
-      <c r="D11" t="n" s="747">
-        <v>0.8842507523120395</v>
-      </c>
-      <c r="E11" t="n" s="748">
-        <v>0.27849607131549964</v>
-      </c>
-      <c r="F11" t="n" s="749">
-        <v>3.473944551361584</v>
-      </c>
-      <c r="G11" t="n" s="750">
-        <v>0.032567142374772144</v>
-      </c>
-      <c r="H11" t="n" s="751">
-        <v>0.044858292672410816</v>
-      </c>
-      <c r="I11" t="n" s="752">
-        <v>0.2171039779936501</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="740">
+      <c r="B14" t="n" s="746">
+        <v>0.7633229254868755</v>
+      </c>
+      <c r="C14" t="n" s="747">
+        <v>0.7894559803048589</v>
+      </c>
+      <c r="D14" t="n" s="748">
+        <v>0.9127476125933062</v>
+      </c>
+      <c r="E14" t="n" s="749">
+        <v>0.29409553365834074</v>
+      </c>
+      <c r="F14" t="n" s="750">
+        <v>3.749600589216248</v>
+      </c>
+      <c r="G14" t="n" s="751">
+        <v>0.03299329810673658</v>
+      </c>
+      <c r="H14" t="n" s="752">
+        <v>0.07314676902983937</v>
+      </c>
+      <c r="I14" t="n" s="753">
+        <v>0.21382990939263194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="741">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="745">
-        <v>0.769211970339271</v>
-      </c>
-      <c r="C12" t="n" s="746">
-        <v>0.7755118120190592</v>
-      </c>
-      <c r="D12" t="n" s="747">
-        <v>0.8846177107220312</v>
-      </c>
-      <c r="E12" t="n" s="748">
-        <v>0.2773741140220421</v>
-      </c>
-      <c r="F12" t="n" s="749">
-        <v>3.454577361036475</v>
-      </c>
-      <c r="G12" t="n" s="750">
-        <v>0.03271748070364382</v>
-      </c>
-      <c r="H12" t="n" s="751">
-        <v>0.04551046081475148</v>
-      </c>
-      <c r="I12" t="n" s="752">
-        <v>0.2096122514977275</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="740">
+      <c r="B15" t="n" s="746">
+        <v>0.7447980976280256</v>
+      </c>
+      <c r="C15" t="n" s="747">
+        <v>0.7801113344862345</v>
+      </c>
+      <c r="D15" t="n" s="748">
+        <v>0.906623591237305</v>
+      </c>
+      <c r="E15" t="n" s="749">
+        <v>0.28274027696885046</v>
+      </c>
+      <c r="F15" t="n" s="750">
+        <v>3.5477560094492344</v>
+      </c>
+      <c r="G15" t="n" s="751">
+        <v>0.03396208891205601</v>
+      </c>
+      <c r="H15" t="n" s="752">
+        <v>0.07407407878595014</v>
+      </c>
+      <c r="I15" t="n" s="753">
+        <v>0.1821189348550897</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="741">
         <v>20</v>
       </c>
-      <c r="B13" t="n" s="745">
-        <v>0.7726627926188289</v>
-      </c>
-      <c r="C13" t="n" s="746">
-        <v>0.7782783385240498</v>
-      </c>
-      <c r="D13" t="n" s="747">
-        <v>0.8897926127396949</v>
-      </c>
-      <c r="E13" t="n" s="748">
-        <v>0.2805846969623334</v>
-      </c>
-      <c r="F13" t="n" s="749">
-        <v>3.510159239035237</v>
-      </c>
-      <c r="G13" t="n" s="750">
-        <v>0.03246844537181593</v>
-      </c>
-      <c r="H13" t="n" s="751">
-        <v>0.04712935879892116</v>
-      </c>
-      <c r="I13" t="n" s="752">
-        <v>0.22132163588855458</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="740">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="745">
-        <v>0.7646355534003311</v>
-      </c>
-      <c r="C14" t="n" s="746">
-        <v>0.7714115657491919</v>
-      </c>
-      <c r="D14" t="n" s="747">
-        <v>0.887459682402784</v>
-      </c>
-      <c r="E14" t="n" s="748">
-        <v>0.2727081442099759</v>
-      </c>
-      <c r="F14" t="n" s="749">
-        <v>3.374674524883424</v>
-      </c>
-      <c r="G14" t="n" s="750">
-        <v>0.03344996584148859</v>
-      </c>
-      <c r="H14" t="n" s="751">
-        <v>0.047445271613923104</v>
-      </c>
-      <c r="I14" t="n" s="752">
-        <v>0.22125147152543362</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="740">
+      <c r="B16" t="n" s="746">
+        <v>0.7455742767531615</v>
+      </c>
+      <c r="C16" t="n" s="747">
+        <v>0.7800801585415928</v>
+      </c>
+      <c r="D16" t="n" s="748">
+        <v>0.9096856133169007</v>
+      </c>
+      <c r="E16" t="n" s="749">
+        <v>0.2827034229327094</v>
+      </c>
+      <c r="F16" t="n" s="750">
+        <v>3.547111317325717</v>
+      </c>
+      <c r="G16" t="n" s="751">
+        <v>0.033630224433243094</v>
+      </c>
+      <c r="H16" t="n" s="752">
+        <v>0.07549243919289028</v>
+      </c>
+      <c r="I16" t="n" s="753">
+        <v>0.1821189348550897</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="741">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="746">
+        <v>0.763049043268402</v>
+      </c>
+      <c r="C17" t="n" s="747">
+        <v>0.8058393807230606</v>
+      </c>
+      <c r="D17" t="n" s="748">
+        <v>0.9287170258260161</v>
+      </c>
+      <c r="E17" t="n" s="749">
+        <v>0.3156088706012255</v>
+      </c>
+      <c r="F17" t="n" s="750">
+        <v>4.15037500253158</v>
+      </c>
+      <c r="G17" t="n" s="751">
+        <v>0.03206438453921355</v>
+      </c>
+      <c r="H17" t="n" s="752">
+        <v>0.08352236702817141</v>
+      </c>
+      <c r="I17" t="n" s="753">
+        <v>0.1945260622873345</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="741">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="745">
-        <v>0.7733548945086001</v>
-      </c>
-      <c r="C15" t="n" s="746">
-        <v>0.7840342495468531</v>
-      </c>
-      <c r="D15" t="n" s="747">
-        <v>0.8771861094934865</v>
-      </c>
-      <c r="E15" t="n" s="748">
-        <v>0.2874314533442377</v>
-      </c>
-      <c r="F15" t="n" s="749">
-        <v>3.630363832699238</v>
-      </c>
-      <c r="G15" t="n" s="750">
-        <v>0.03218579846052684</v>
-      </c>
-      <c r="H15" t="n" s="751">
-        <v>0.046284988724029225</v>
-      </c>
-      <c r="I15" t="n" s="752">
-        <v>0.2096122514977275</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="740">
+      <c r="B18" t="n" s="746">
+        <v>0.7320040313598902</v>
+      </c>
+      <c r="C18" t="n" s="747">
+        <v>0.785395624250165</v>
+      </c>
+      <c r="D18" t="n" s="748">
+        <v>0.9206064224278672</v>
+      </c>
+      <c r="E18" t="n" s="749">
+        <v>0.2890847705201228</v>
+      </c>
+      <c r="F18" t="n" s="750">
+        <v>3.659737232784587</v>
+      </c>
+      <c r="G18" t="n" s="751">
+        <v>0.036345865529099255</v>
+      </c>
+      <c r="H18" t="n" s="752">
+        <v>0.0897761590276344</v>
+      </c>
+      <c r="I18" t="n" s="753">
+        <v>0.15103712145532672</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="741">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="745">
-        <v>0.770595905487904</v>
-      </c>
-      <c r="C16" t="n" s="746">
-        <v>0.7822594059397266</v>
-      </c>
-      <c r="D16" t="n" s="747">
-        <v>0.8776102004100498</v>
-      </c>
-      <c r="E16" t="n" s="748">
-        <v>0.28529572346271337</v>
-      </c>
-      <c r="F16" t="n" s="749">
-        <v>3.5926208859482927</v>
-      </c>
-      <c r="G16" t="n" s="750">
-        <v>0.032625572077247145</v>
-      </c>
-      <c r="H16" t="n" s="751">
-        <v>0.047585014161138514</v>
-      </c>
-      <c r="I16" t="n" s="752">
-        <v>0.2171039779936501</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="740">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="745">
-        <v>0.778328137082312</v>
-      </c>
-      <c r="C17" t="n" s="746">
-        <v>0.7928298895670424</v>
-      </c>
-      <c r="D17" t="n" s="747">
-        <v>0.8650953586988146</v>
-      </c>
-      <c r="E17" t="n" s="748">
-        <v>0.2983523594784201</v>
-      </c>
-      <c r="F17" t="n" s="749">
-        <v>3.826951136484575</v>
-      </c>
-      <c r="G17" t="n" s="750">
-        <v>0.031187979664375066</v>
-      </c>
-      <c r="H17" t="n" s="751">
-        <v>0.03975723954114188</v>
-      </c>
-      <c r="I17" t="n" s="752">
-        <v>0.23297894247372003</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="740">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="745">
-        <v>0.7771407657846608</v>
-      </c>
-      <c r="C18" t="n" s="746">
-        <v>0.7899932679042283</v>
-      </c>
-      <c r="D18" t="n" s="747">
-        <v>0.8636686777972047</v>
-      </c>
-      <c r="E18" t="n" s="748">
-        <v>0.2947676838320912</v>
-      </c>
-      <c r="F18" t="n" s="749">
-        <v>3.761752111565445</v>
-      </c>
-      <c r="G18" t="n" s="750">
-        <v>0.031291898357541564</v>
-      </c>
-      <c r="H18" t="n" s="751">
-        <v>0.04084719193270876</v>
-      </c>
-      <c r="I18" t="n" s="752">
-        <v>0.23297894247372003</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="740">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="745">
-        <v>0.7919377674551789</v>
-      </c>
-      <c r="C19" t="n" s="746">
-        <v>0.8003652018495798</v>
-      </c>
-      <c r="D19" t="n" s="747">
-        <v>0.9128637119116187</v>
-      </c>
-      <c r="E19" t="n" s="748">
-        <v>0.3081790701465131</v>
-      </c>
-      <c r="F19" t="n" s="749">
-        <v>4.009146748286453</v>
-      </c>
-      <c r="G19" t="n" s="750">
-        <v>0.029996215785975264</v>
-      </c>
-      <c r="H19" t="n" s="751">
-        <v>0.052557285505100915</v>
-      </c>
-      <c r="I19" t="n" s="752">
-        <v>0.235650275631678</v>
+      <c r="B19" t="n" s="746">
+        <v>0.7358096411805353</v>
+      </c>
+      <c r="C19" t="n" s="747">
+        <v>0.7863864221638621</v>
+      </c>
+      <c r="D19" t="n" s="748">
+        <v>0.8941096812275693</v>
+      </c>
+      <c r="E19" t="n" s="749">
+        <v>0.29029640039434956</v>
+      </c>
+      <c r="F19" t="n" s="750">
+        <v>3.6813503623215165</v>
+      </c>
+      <c r="G19" t="n" s="751">
+        <v>0.035123154526561104</v>
+      </c>
+      <c r="H19" t="n" s="752">
+        <v>0.07957521043719115</v>
+      </c>
+      <c r="I19" t="n" s="753">
+        <v>0.1821189348550897</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="740">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="745">
-        <v>0.7659553696150584</v>
-      </c>
-      <c r="C20" t="n" s="746">
-        <v>0.7789490640367632</v>
-      </c>
-      <c r="D20" t="n" s="747">
-        <v>0.9034979586419353</v>
-      </c>
-      <c r="E20" t="n" s="748">
-        <v>0.2813708124602198</v>
-      </c>
-      <c r="F20" t="n" s="749">
-        <v>3.523844224601299</v>
-      </c>
-      <c r="G20" t="n" s="750">
-        <v>0.03360816735957657</v>
-      </c>
-      <c r="H20" t="n" s="751">
-        <v>0.056698049772606854</v>
-      </c>
-      <c r="I20" t="n" s="752">
-        <v>0.1898724409385984</v>
+      <c r="A20" t="s" s="741">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="746">
+        <v>0.7304099362409011</v>
+      </c>
+      <c r="C20" t="n" s="747">
+        <v>0.7827903726760963</v>
+      </c>
+      <c r="D20" t="n" s="748">
+        <v>0.8940892429979097</v>
+      </c>
+      <c r="E20" t="n" s="749">
+        <v>0.2859323314475238</v>
+      </c>
+      <c r="F20" t="n" s="750">
+        <v>3.6038475012380395</v>
+      </c>
+      <c r="G20" t="n" s="751">
+        <v>0.03604172135408405</v>
+      </c>
+      <c r="H20" t="n" s="752">
+        <v>0.08145478476981421</v>
+      </c>
+      <c r="I20" t="n" s="753">
+        <v>0.15103712145532672</v>
       </c>
     </row>
     <row r="21">
@@ -7705,292 +7891,292 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="756">
-        <v>30</v>
+      <c r="A23" t="s" s="757">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24" t="s" s="770">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="770">
+      <c r="B24" t="s" s="771">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="770">
+      <c r="C24" t="s" s="771">
         <v>33</v>
       </c>
-      <c r="E24" t="s" s="770">
+      <c r="D24" t="s" s="771">
         <v>34</v>
       </c>
-      <c r="F24" t="s" s="770">
+      <c r="E24" t="s" s="771">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="770">
+      <c r="F24" t="s" s="771">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="771">
         <v>9</v>
       </c>
-      <c r="H24" t="s" s="770">
+      <c r="H24" t="s" s="771">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="766">
+      <c r="A25" t="s" s="767">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="772">
+        <v>119.0</v>
+      </c>
+      <c r="C25" t="n" s="773">
+        <v>0.6503803913459804</v>
+      </c>
+      <c r="D25" t="n" s="774">
+        <v>0.6582940939889644</v>
+      </c>
+      <c r="E25" t="n" s="775">
+        <v>0.681119524403884</v>
+      </c>
+      <c r="F25" t="n" s="776">
+        <v>0.6149840683117029</v>
+      </c>
+      <c r="G25" t="n" s="777">
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="H25" t="n" s="778">
+        <v>0.40909054941940426</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="767">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="772">
+        <v>119.0</v>
+      </c>
+      <c r="C26" t="n" s="773">
+        <v>0.6653352006539583</v>
+      </c>
+      <c r="D26" t="n" s="774">
+        <v>0.6686919583885861</v>
+      </c>
+      <c r="E26" t="n" s="775">
+        <v>0.694194439408155</v>
+      </c>
+      <c r="F26" t="n" s="776">
+        <v>0.5191332448004359</v>
+      </c>
+      <c r="G26" t="n" s="777">
+        <v>0.7563025210084033</v>
+      </c>
+      <c r="H26" t="n" s="778">
+        <v>1.4955662526882691</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="767">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n" s="772">
+        <v>119.0</v>
+      </c>
+      <c r="C27" t="n" s="773">
+        <v>0.6741419954579678</v>
+      </c>
+      <c r="D27" t="n" s="774">
+        <v>0.6739528970681669</v>
+      </c>
+      <c r="E27" t="n" s="775">
+        <v>0.6962318274564592</v>
+      </c>
+      <c r="F27" t="n" s="776">
+        <v>0.5206237394521395</v>
+      </c>
+      <c r="G27" t="n" s="777">
+        <v>0.7815126050420168</v>
+      </c>
+      <c r="H27" t="n" s="778">
+        <v>1.5793136455249988</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="767">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="771">
+      <c r="B28" t="n" s="772">
         <v>119.0</v>
       </c>
-      <c r="C25" t="n" s="772">
-        <v>0.6001414907393496</v>
-      </c>
-      <c r="D25" t="n" s="773">
-        <v>0.6460781172722103</v>
-      </c>
-      <c r="E25" t="n" s="774">
-        <v>0.6226638589121933</v>
-      </c>
-      <c r="F25" t="n" s="775">
-        <v>0.50214804573889</v>
-      </c>
-      <c r="G25" t="n" s="776">
+      <c r="C28" t="n" s="773">
+        <v>0.4286278643606164</v>
+      </c>
+      <c r="D28" t="n" s="774">
+        <v>0.5531893276699505</v>
+      </c>
+      <c r="E28" t="n" s="775">
+        <v>0.5201975943831597</v>
+      </c>
+      <c r="F28" t="n" s="776">
+        <v>0.40071469882118127</v>
+      </c>
+      <c r="G28" t="n" s="777">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="H28" t="n" s="778">
+        <v>0.23628902321631962</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="767">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="772">
+        <v>119.0</v>
+      </c>
+      <c r="C29" t="n" s="773">
+        <v>0.5370128944942477</v>
+      </c>
+      <c r="D29" t="n" s="774">
+        <v>0.6215165032978871</v>
+      </c>
+      <c r="E29" t="n" s="775">
+        <v>0.6006593985492555</v>
+      </c>
+      <c r="F29" t="n" s="776">
+        <v>0.41425307383792853</v>
+      </c>
+      <c r="G29" t="n" s="777">
         <v>3.369747899159664</v>
       </c>
-      <c r="H25" t="n" s="777">
+      <c r="H29" t="n" s="778">
         <v>1.0803761603122186</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="766">
-        <v>19</v>
-      </c>
-      <c r="B26" t="n" s="771">
+    <row r="30">
+      <c r="A30" t="s" s="767">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="772">
         <v>119.0</v>
       </c>
-      <c r="C26" t="n" s="772">
-        <v>0.616172093709746</v>
-      </c>
-      <c r="D26" t="n" s="773">
-        <v>0.6528304267661732</v>
-      </c>
-      <c r="E26" t="n" s="774">
-        <v>0.6288019799231586</v>
-      </c>
-      <c r="F26" t="n" s="775">
-        <v>0.49901174581949514</v>
-      </c>
-      <c r="G26" t="n" s="776">
+      <c r="C30" t="n" s="773">
+        <v>0.5538184492570194</v>
+      </c>
+      <c r="D30" t="n" s="774">
+        <v>0.6217382624592048</v>
+      </c>
+      <c r="E30" t="n" s="775">
+        <v>0.5951383231721613</v>
+      </c>
+      <c r="F30" t="n" s="776">
+        <v>0.406379121514504</v>
+      </c>
+      <c r="G30" t="n" s="777">
         <v>3.8151260504201683</v>
       </c>
-      <c r="H26" t="n" s="777">
+      <c r="H30" t="n" s="778">
         <v>1.2951433829046597</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="766">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="771">
+    <row r="31">
+      <c r="A31" t="s" s="767">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n" s="772">
         <v>119.0</v>
       </c>
-      <c r="C27" t="n" s="772">
-        <v>0.5887131631523748</v>
-      </c>
-      <c r="D27" t="n" s="773">
-        <v>0.6335080784064813</v>
-      </c>
-      <c r="E27" t="n" s="774">
-        <v>0.5980106913611016</v>
-      </c>
-      <c r="F27" t="n" s="775">
-        <v>0.49899406099112836</v>
-      </c>
-      <c r="G27" t="n" s="776">
-        <v>3.4789915966386555</v>
-      </c>
-      <c r="H27" t="n" s="777">
-        <v>0.9815996931315248</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="766">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="771">
+      <c r="C31" t="n" s="773">
+        <v>0.5023632171256628</v>
+      </c>
+      <c r="D31" t="n" s="774">
+        <v>0.42373866073787164</v>
+      </c>
+      <c r="E31" t="n" s="775">
+        <v>0.31582910453119567</v>
+      </c>
+      <c r="F31" t="n" s="776">
+        <v>0.3137268969088139</v>
+      </c>
+      <c r="G31" t="n" s="777">
+        <v>1.3781512605042017</v>
+      </c>
+      <c r="H31" t="n" s="778">
+        <v>1.5293268522438754</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="767">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n" s="772">
         <v>119.0</v>
       </c>
-      <c r="C28" t="n" s="772">
-        <v>0.6506072938436369</v>
-      </c>
-      <c r="D28" t="n" s="773">
-        <v>0.6809117739299904</v>
-      </c>
-      <c r="E28" t="n" s="774">
-        <v>0.6502525304324</v>
-      </c>
-      <c r="F28" t="n" s="775">
-        <v>0.5333151766349811</v>
-      </c>
-      <c r="G28" t="n" s="776">
-        <v>3.7394957983193278</v>
-      </c>
-      <c r="H28" t="n" s="777">
-        <v>1.3682983671671782</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="766">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n" s="771">
+      <c r="C32" t="n" s="773">
+        <v>0.6413206850388747</v>
+      </c>
+      <c r="D32" t="n" s="774">
+        <v>0.5833402350723241</v>
+      </c>
+      <c r="E32" t="n" s="775">
+        <v>0.49615085789454905</v>
+      </c>
+      <c r="F32" t="n" s="776">
+        <v>0.49807949984432387</v>
+      </c>
+      <c r="G32" t="n" s="777">
+        <v>2.19327731092437</v>
+      </c>
+      <c r="H32" t="n" s="778">
+        <v>1.4158743535917335</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="767">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n" s="772">
         <v>119.0</v>
       </c>
-      <c r="C29" t="n" s="772">
-        <v>0.5899205113333933</v>
-      </c>
-      <c r="D29" t="n" s="773">
-        <v>0.5923020375081594</v>
-      </c>
-      <c r="E29" t="n" s="774">
-        <v>0.5791112283241368</v>
-      </c>
-      <c r="F29" t="n" s="775">
-        <v>0.4628373500139674</v>
-      </c>
-      <c r="G29" t="n" s="776">
+      <c r="C33" t="n" s="773">
+        <v>0.614498612050945</v>
+      </c>
+      <c r="D33" t="n" s="774">
+        <v>0.5760495811068382</v>
+      </c>
+      <c r="E33" t="n" s="775">
+        <v>0.5581716951697436</v>
+      </c>
+      <c r="F33" t="n" s="776">
+        <v>0.47392096135355616</v>
+      </c>
+      <c r="G33" t="n" s="777">
         <v>2.0</v>
       </c>
-      <c r="H29" t="n" s="777">
+      <c r="H33" t="n" s="778">
         <v>1.3403768759164436</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="766">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n" s="771">
+    <row r="34">
+      <c r="A34" t="s" s="767">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n" s="772">
         <v>119.0</v>
       </c>
-      <c r="C30" t="n" s="772">
-        <v>0.6065621421688588</v>
-      </c>
-      <c r="D30" t="n" s="773">
-        <v>0.605155565213403</v>
-      </c>
-      <c r="E30" t="n" s="774">
-        <v>0.5916478245453167</v>
-      </c>
-      <c r="F30" t="n" s="775">
-        <v>0.4869508318232453</v>
-      </c>
-      <c r="G30" t="n" s="776">
+      <c r="C34" t="n" s="773">
+        <v>0.6410577960865782</v>
+      </c>
+      <c r="D34" t="n" s="774">
+        <v>0.6023091817073397</v>
+      </c>
+      <c r="E34" t="n" s="775">
+        <v>0.5843757240381582</v>
+      </c>
+      <c r="F34" t="n" s="776">
+        <v>0.5114510889032249</v>
+      </c>
+      <c r="G34" t="n" s="777">
         <v>1.8907563025210083</v>
       </c>
-      <c r="H30" t="n" s="777">
+      <c r="H34" t="n" s="778">
         <v>1.3005208602344127</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="766">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="771">
-        <v>119.0</v>
-      </c>
-      <c r="C31" t="n" s="772">
-        <v>0.5754558935064426</v>
-      </c>
-      <c r="D31" t="n" s="773">
-        <v>0.5265764180014965</v>
-      </c>
-      <c r="E31" t="n" s="774">
-        <v>0.5465815957723467</v>
-      </c>
-      <c r="F31" t="n" s="775">
-        <v>0.42831298363000764</v>
-      </c>
-      <c r="G31" t="n" s="776">
-        <v>0.7563025210084033</v>
-      </c>
-      <c r="H31" t="n" s="777">
-        <v>1.4955662526882691</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="766">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="771">
-        <v>119.0</v>
-      </c>
-      <c r="C32" t="n" s="772">
-        <v>0.5953379664051012</v>
-      </c>
-      <c r="D32" t="n" s="773">
-        <v>0.548150179802083</v>
-      </c>
-      <c r="E32" t="n" s="774">
-        <v>0.5692820827834071</v>
-      </c>
-      <c r="F32" t="n" s="775">
-        <v>0.4429892424811554</v>
-      </c>
-      <c r="G32" t="n" s="776">
-        <v>0.7815126050420168</v>
-      </c>
-      <c r="H32" t="n" s="777">
-        <v>1.5793136455249988</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="766">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="771">
-        <v>119.0</v>
-      </c>
-      <c r="C33" t="n" s="772">
-        <v>0.49396606144162825</v>
-      </c>
-      <c r="D33" t="n" s="773">
-        <v>0.4674360281439571</v>
-      </c>
-      <c r="E33" t="n" s="774">
-        <v>0.364139511999052</v>
-      </c>
-      <c r="F33" t="n" s="775">
-        <v>0.3280243328462939</v>
-      </c>
-      <c r="G33" t="n" s="776">
-        <v>1.3781512605042017</v>
-      </c>
-      <c r="H33" t="n" s="777">
-        <v>1.5293268522438754</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="766">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="771">
-        <v>119.0</v>
-      </c>
-      <c r="C34" t="n" s="772">
-        <v>0.6446942443912033</v>
-      </c>
-      <c r="D34" t="n" s="773">
-        <v>0.6287769757426969</v>
-      </c>
-      <c r="E34" t="n" s="774">
-        <v>0.5499604777037194</v>
-      </c>
-      <c r="F34" t="n" s="775">
-        <v>0.5212333302152228</v>
-      </c>
-      <c r="G34" t="n" s="776">
-        <v>2.19327731092437</v>
-      </c>
-      <c r="H34" t="n" s="777">
-        <v>1.4158743535917335</v>
       </c>
     </row>
     <row r="35">
@@ -8004,291 +8190,291 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="781">
-        <v>36</v>
+      <c r="A37" t="s" s="782">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="s" s="795">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="795">
+      <c r="B38" t="s" s="796">
         <v>38</v>
       </c>
-      <c r="D38" t="s" s="795">
+      <c r="C38" t="s" s="796">
         <v>39</v>
       </c>
-      <c r="E38" t="s" s="795">
+      <c r="D38" t="s" s="796">
         <v>40</v>
       </c>
-      <c r="F38" t="s" s="795">
+      <c r="E38" t="s" s="796">
         <v>41</v>
       </c>
-      <c r="G38" t="s" s="795">
+      <c r="F38" t="s" s="796">
         <v>42</v>
       </c>
-      <c r="H38" t="s" s="795">
+      <c r="G38" t="s" s="796">
         <v>43</v>
       </c>
+      <c r="H38" t="s" s="796">
+        <v>44</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="791">
+      <c r="A39" t="s" s="792">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n" s="797">
+        <v>0.7899159663865546</v>
+      </c>
+      <c r="C39" t="n" s="798">
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="D39" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="792">
+        <v>22</v>
+      </c>
+      <c r="B40" t="n" s="797">
+        <v>0.7899159663865546</v>
+      </c>
+      <c r="C40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="800">
+        <v>0.09243697478991597</v>
+      </c>
+      <c r="F40" t="n" s="801">
+        <v>0.1092436974789916</v>
+      </c>
+      <c r="G40" t="n" s="802">
+        <v>0.008403361344537815</v>
+      </c>
+      <c r="H40" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="792">
+        <v>23</v>
+      </c>
+      <c r="B41" t="n" s="797">
+        <v>0.7899159663865546</v>
+      </c>
+      <c r="C41" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="799">
+        <v>0.01680672268907563</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.07563025210084033</v>
+      </c>
+      <c r="F41" t="n" s="801">
+        <v>0.06722689075630252</v>
+      </c>
+      <c r="G41" t="n" s="802">
+        <v>0.05042016806722689</v>
+      </c>
+      <c r="H41" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="792">
         <v>18</v>
       </c>
-      <c r="B39" t="n" s="796">
+      <c r="B42" t="n" s="797">
         <v>0.058823529411764705</v>
       </c>
-      <c r="C39" t="n" s="797">
+      <c r="C42" t="n" s="798">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="D42" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="792">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n" s="797">
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="C43" t="n" s="798">
         <v>0.01680672268907563</v>
       </c>
-      <c r="D39" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="799">
+      <c r="D43" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n" s="800">
         <v>0.40336134453781514</v>
       </c>
-      <c r="F39" t="n" s="800">
+      <c r="F43" t="n" s="801">
         <v>0.46218487394957986</v>
       </c>
-      <c r="G39" t="n" s="801">
+      <c r="G43" t="n" s="802">
         <v>0.058823529411764705</v>
       </c>
-      <c r="H39" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="791">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="796">
+      <c r="H43" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="792">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n" s="797">
         <v>0.058823529411764705</v>
       </c>
-      <c r="C40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="798">
+      <c r="C44" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="799">
         <v>0.025210084033613446</v>
       </c>
-      <c r="E40" t="n" s="799">
+      <c r="E44" t="n" s="800">
         <v>0.2773109243697479</v>
       </c>
-      <c r="F40" t="n" s="800">
+      <c r="F44" t="n" s="801">
         <v>0.2605042016806723</v>
       </c>
-      <c r="G40" t="n" s="801">
+      <c r="G44" t="n" s="802">
         <v>0.37815126050420167</v>
       </c>
-      <c r="H40" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="791">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="796">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="C41" t="n" s="797">
+      <c r="H44" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="792">
+        <v>27</v>
+      </c>
+      <c r="B45" t="n" s="797">
+        <v>0.46218487394957986</v>
+      </c>
+      <c r="C45" t="n" s="798">
+        <v>0.15966386554621848</v>
+      </c>
+      <c r="D45" t="n" s="799">
         <v>0.03361344537815126</v>
       </c>
-      <c r="D41" t="n" s="798">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="E41" t="n" s="799">
-        <v>0.3445378151260504</v>
-      </c>
-      <c r="F41" t="n" s="800">
-        <v>0.4957983193277311</v>
-      </c>
-      <c r="G41" t="n" s="801">
-        <v>0.07563025210084033</v>
-      </c>
-      <c r="H41" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="791">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="796">
-        <v>0.025210084033613446</v>
-      </c>
-      <c r="C42" t="n" s="797">
+      <c r="E45" t="n" s="800">
+        <v>0.226890756302521</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G45" t="n" s="802">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="792">
+        <v>28</v>
+      </c>
+      <c r="B46" t="n" s="797">
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="C46" t="n" s="798">
+        <v>0.13445378151260504</v>
+      </c>
+      <c r="D46" t="n" s="799">
         <v>0.058823529411764705</v>
       </c>
-      <c r="D42" t="n" s="798">
-        <v>0.05042016806722689</v>
-      </c>
-      <c r="E42" t="n" s="799">
-        <v>0.33613445378151263</v>
-      </c>
-      <c r="F42" t="n" s="800">
-        <v>0.07563025210084033</v>
-      </c>
-      <c r="G42" t="n" s="801">
-        <v>0.453781512605042</v>
-      </c>
-      <c r="H42" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="791">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="796">
+      <c r="E46" t="n" s="800">
+        <v>0.44537815126050423</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.15126050420168066</v>
+      </c>
+      <c r="G46" t="n" s="802">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="792">
+        <v>29</v>
+      </c>
+      <c r="B47" t="n" s="797">
         <v>0.20168067226890757</v>
       </c>
-      <c r="C43" t="n" s="797">
+      <c r="C47" t="n" s="798">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D43" t="n" s="798">
+      <c r="D47" t="n" s="799">
         <v>0.25210084033613445</v>
       </c>
-      <c r="E43" t="n" s="799">
+      <c r="E47" t="n" s="800">
         <v>0.2605042016806723</v>
       </c>
-      <c r="F43" t="n" s="800">
+      <c r="F47" t="n" s="801">
         <v>0.14285714285714285</v>
       </c>
-      <c r="G43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="791">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="796">
+      <c r="G47" t="n" s="802">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="803">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="792">
+        <v>30</v>
+      </c>
+      <c r="B48" t="n" s="797">
         <v>0.2184873949579832</v>
       </c>
-      <c r="C44" t="n" s="797">
+      <c r="C48" t="n" s="798">
         <v>0.12605042016806722</v>
       </c>
-      <c r="D44" t="n" s="798">
+      <c r="D48" t="n" s="799">
         <v>0.31932773109243695</v>
       </c>
-      <c r="E44" t="n" s="799">
+      <c r="E48" t="n" s="800">
         <v>0.2184873949579832</v>
       </c>
-      <c r="F44" t="n" s="800">
+      <c r="F48" t="n" s="801">
         <v>0.11764705882352941</v>
       </c>
-      <c r="G44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="791">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="796">
-        <v>0.7899159663865546</v>
-      </c>
-      <c r="C45" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.09243697478991597</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.1092436974789916</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.008403361344537815</v>
-      </c>
-      <c r="H45" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="791">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="796">
-        <v>0.7899159663865546</v>
-      </c>
-      <c r="C46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="798">
-        <v>0.01680672268907563</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.07563025210084033</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.06722689075630252</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.05042016806722689</v>
-      </c>
-      <c r="H46" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="791">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="796">
-        <v>0.46218487394957986</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.15966386554621848</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.03361344537815126</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.226890756302521</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="791">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="796">
-        <v>0.21008403361344538</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.13445378151260504</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.44537815126050423</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.15126050420168066</v>
-      </c>
-      <c r="G48" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="802">
+      <c r="G48" t="n" s="802">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="803">
         <v>0.0</v>
       </c>
     </row>
